--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H2">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I2">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J2">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>1.996077998230667</v>
+        <v>0.4326636497905555</v>
       </c>
       <c r="R2">
-        <v>17.964701984076</v>
+        <v>3.893972848115</v>
       </c>
       <c r="S2">
-        <v>0.06946549071113942</v>
+        <v>0.01535528507781172</v>
       </c>
       <c r="T2">
-        <v>0.0694654907111394</v>
+        <v>0.01535528507781172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H3">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I3">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J3">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
-        <v>1.883555996337333</v>
+        <v>0.4777136247247777</v>
       </c>
       <c r="R3">
-        <v>16.952003967036</v>
+        <v>4.299422622522999</v>
       </c>
       <c r="S3">
-        <v>0.06554961363406694</v>
+        <v>0.01695411411787118</v>
       </c>
       <c r="T3">
-        <v>0.06554961363406693</v>
+        <v>0.01695411411787118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H4">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I4">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J4">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>1.708352178134666</v>
+        <v>0.6606309992045556</v>
       </c>
       <c r="R4">
-        <v>15.375169603212</v>
+        <v>5.945678992841</v>
       </c>
       <c r="S4">
-        <v>0.05945234728640838</v>
+        <v>0.02344587378425751</v>
       </c>
       <c r="T4">
-        <v>0.05945234728640837</v>
+        <v>0.02344587378425751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.511827</v>
       </c>
       <c r="I5">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J5">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>2.828790264168778</v>
+        <v>2.417600620866111</v>
       </c>
       <c r="R5">
-        <v>25.459112377519</v>
+        <v>21.758405587795</v>
       </c>
       <c r="S5">
-        <v>0.09844470205751446</v>
+        <v>0.08580093741562132</v>
       </c>
       <c r="T5">
-        <v>0.09844470205751446</v>
+        <v>0.08580093741562132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.511827</v>
       </c>
       <c r="I6">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J6">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
         <v>2.669326984806556</v>
@@ -818,10 +818,10 @@
         <v>24.023942863259</v>
       </c>
       <c r="S6">
-        <v>0.09289522204665156</v>
+        <v>0.09473473641116356</v>
       </c>
       <c r="T6">
-        <v>0.09289522204665156</v>
+        <v>0.09473473641116356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.511827</v>
       </c>
       <c r="I7">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J7">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>2.421032651811444</v>
+        <v>3.691416911528111</v>
       </c>
       <c r="R7">
-        <v>21.789293866303</v>
+        <v>33.222752203753</v>
       </c>
       <c r="S7">
-        <v>0.08425433341525085</v>
+        <v>0.131008831097802</v>
       </c>
       <c r="T7">
-        <v>0.08425433341525085</v>
+        <v>0.131008831097802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H8">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I8">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J8">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N8">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q8">
-        <v>5.439461225559778</v>
+        <v>4.909784719619446</v>
       </c>
       <c r="R8">
-        <v>48.955151030038</v>
+        <v>44.18806247657501</v>
       </c>
       <c r="S8">
-        <v>0.1892986364123337</v>
+        <v>0.1742488514506267</v>
       </c>
       <c r="T8">
-        <v>0.1892986364123337</v>
+        <v>0.1742488514506267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H9">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I9">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J9">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.358617</v>
       </c>
       <c r="O9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q9">
-        <v>5.132830389057555</v>
+        <v>5.421003257757223</v>
       </c>
       <c r="R9">
-        <v>46.19547350151799</v>
+        <v>48.78902931981501</v>
       </c>
       <c r="S9">
-        <v>0.17862757969828</v>
+        <v>0.1923920589837017</v>
       </c>
       <c r="T9">
-        <v>0.17862757969828</v>
+        <v>0.1923920589837017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H10">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I10">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J10">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N10">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q10">
-        <v>4.655386934178443</v>
+        <v>7.496714796289447</v>
       </c>
       <c r="R10">
-        <v>41.898482407606</v>
+        <v>67.47043316660501</v>
       </c>
       <c r="S10">
-        <v>0.1620120747383548</v>
+        <v>0.2660593116611444</v>
       </c>
       <c r="T10">
-        <v>0.1620120747383548</v>
+        <v>0.2660593116611444</v>
       </c>
     </row>
   </sheetData>
